--- a/data/CB_HAB/HAB_MAP_Data_2017.xlsx
+++ b/data/CB_HAB/HAB_MAP_Data_2017.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chesapeake_Bay_HABS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\shardison\soe 2018\Data\HAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22176" windowHeight="9048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="7404" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -759,15 +759,6 @@
   </si>
   <si>
     <t xml:space="preserve">Microcystine of 0.134 ppb is just above the detected limits.  Levels of algae in Prince Edward Lake do not exceed recreational thresholds. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 5,600,000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 1,975,000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    115,000 </t>
   </si>
   <si>
     <t>The phytoplankton analysis identified low overall phytoplankton abundance (&lt;100 cells/ml), including a sparse population of centric diatoms including Aulacoseira granulata (~60/ml) and pennate diatoms. These are common freshwater species throughout the state, and do not represent any health concerns.The ELISA toxin analyses also reflect the same conclusion, that there is not a cyanobacteria bloom with concentrations of toxins of health concern. Microcystin measurements were at the lowest quantifiable limit of 0.15ppb, and Saxitoxin concentrations were below the quantifiable limit (&lt;0.02ppb).</t>
@@ -1329,11 +1320,20 @@
   <si>
     <t xml:space="preserve"> A. monilatum</t>
   </si>
+  <si>
+    <t xml:space="preserve">                    115000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 5600000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 1975000 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1903,17 +1903,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Comma 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="10"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 9" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="3"/>
+    <cellStyle name="Normal 6" xfId="5"/>
+    <cellStyle name="Normal 7" xfId="7"/>
+    <cellStyle name="Normal 8" xfId="8"/>
+    <cellStyle name="Normal 9" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2953,23 +2953,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3005,23 +2988,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3197,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView topLeftCell="A151" workbookViewId="0">
@@ -9069,13 +9035,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9087,7 +9053,7 @@
     <col min="5" max="5" width="17.44140625" style="33" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="33" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="19" style="33" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="33" customWidth="1"/>
     <col min="9" max="9" width="51.44140625" style="33" customWidth="1"/>
     <col min="10" max="10" width="9" style="33" customWidth="1"/>
     <col min="11" max="11" width="15" style="33" customWidth="1"/>
@@ -9100,7 +9066,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1" s="79" t="s">
         <v>9</v>
@@ -9109,19 +9075,19 @@
         <v>177</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F1" s="79" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I1" s="79" t="s">
         <v>192</v>
@@ -9296,7 +9262,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H5" s="35">
         <v>0</v>
@@ -9413,7 +9379,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H8" s="33">
         <v>0</v>
@@ -9425,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O8" s="37" t="s">
         <v>197</v>
@@ -9451,7 +9417,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H9" s="33">
         <v>0</v>
@@ -9483,7 +9449,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H10" s="33">
         <v>0</v>
@@ -9518,7 +9484,7 @@
         <v>187</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>187</v>
@@ -9609,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H13" s="33">
         <v>0</v>
@@ -9718,7 +9684,7 @@
         <v>218</v>
       </c>
       <c r="O15" s="37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -9765,7 +9731,7 @@
         <v>233</v>
       </c>
       <c r="O16" s="37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -9812,7 +9778,7 @@
         <v>234</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -9835,10 +9801,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>246</v>
+        <v>416</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>176</v>
@@ -9859,7 +9825,7 @@
         <v>232</v>
       </c>
       <c r="O18" s="37" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="124.8" x14ac:dyDescent="0.3">
@@ -9882,10 +9848,10 @@
         <v>15</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>176</v>
@@ -9906,7 +9872,7 @@
         <v>237</v>
       </c>
       <c r="O19" s="37" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -9929,10 +9895,10 @@
         <v>15</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>245</v>
+        <v>418</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>176</v>
@@ -9953,7 +9919,7 @@
         <v>240</v>
       </c>
       <c r="O20" s="37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -9976,7 +9942,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H21" s="52">
         <v>26400</v>
@@ -10000,7 +9966,7 @@
         <v>243</v>
       </c>
       <c r="O21" s="37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="35" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
@@ -10008,7 +9974,7 @@
         <v>42944</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C22" s="36">
         <v>42947</v>
@@ -10023,7 +9989,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>193</v>
@@ -10041,13 +10007,13 @@
         <v>225</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O22" s="37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="35" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -10055,7 +10021,7 @@
         <v>42947</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C23" s="36"/>
       <c r="F23" s="35" t="s">
@@ -10068,14 +10034,14 @@
         <v>881000</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M23" s="37"/>
       <c r="N23" s="37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O23" s="37"/>
     </row>
@@ -10084,7 +10050,7 @@
         <v>42950</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C24" s="40">
         <v>42951</v>
@@ -10099,7 +10065,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H24" s="52">
         <v>8700000</v>
@@ -10117,13 +10083,13 @@
         <v>225</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O24" s="71" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="105.6" x14ac:dyDescent="0.3">
@@ -10131,7 +10097,7 @@
         <v>42983</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C25" s="40">
         <v>42983</v>
@@ -10152,7 +10118,7 @@
         <v>193</v>
       </c>
       <c r="O25" s="71" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="35" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -10175,7 +10141,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="58" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H26" s="59">
         <v>2866</v>
@@ -10183,10 +10149,10 @@
       <c r="I26" s="57"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O26" s="91" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="35" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -10202,7 +10168,7 @@
         <v>-76.407399999999996</v>
       </c>
       <c r="G27" s="58" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H27" s="59">
         <v>3761</v>
@@ -10232,7 +10198,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H28" s="59">
         <v>6660</v>
@@ -10240,10 +10206,10 @@
       <c r="I28" s="57"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O28" s="37" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="35" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -10266,7 +10232,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H29" s="59">
         <v>3128</v>
@@ -10274,10 +10240,10 @@
       <c r="I29" s="57"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O29" s="37" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="35" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10300,7 +10266,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H30" s="59">
         <v>24160</v>
@@ -10308,10 +10274,10 @@
       <c r="I30" s="57"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O30" s="37" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="35" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10330,7 +10296,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="58" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H31" s="59">
         <v>2796</v>
@@ -10360,7 +10326,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H32" s="59">
         <v>6826</v>
@@ -10368,10 +10334,10 @@
       <c r="I32" s="57"/>
       <c r="M32" s="37"/>
       <c r="N32" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O32" s="37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="35" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10390,7 +10356,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H33" s="59">
         <v>8300</v>
@@ -10420,7 +10386,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="58" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H34" s="59">
         <v>8545</v>
@@ -10428,10 +10394,10 @@
       <c r="I34" s="57"/>
       <c r="M34" s="37"/>
       <c r="N34" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O34" s="37" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="35" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10454,7 +10420,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="58" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H35" s="59">
         <v>8233</v>
@@ -10462,10 +10428,10 @@
       <c r="I35" s="57"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O35" s="37" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -10488,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="58" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H36" s="59">
         <v>8054</v>
@@ -10496,10 +10462,10 @@
       <c r="I36" s="57"/>
       <c r="M36" s="37"/>
       <c r="N36" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O36" s="37" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="35" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -10522,7 +10488,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="58" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H37" s="59">
         <v>4657</v>
@@ -10530,10 +10496,10 @@
       <c r="I37" s="57"/>
       <c r="M37" s="37"/>
       <c r="N37" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O37" s="37" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -10541,7 +10507,7 @@
         <v>42949</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C38" s="36">
         <v>42958</v>
@@ -10556,7 +10522,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="57" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H38" s="61">
         <v>84300</v>
@@ -10566,13 +10532,13 @@
       </c>
       <c r="J38" s="62"/>
       <c r="K38" s="57" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L38" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M38" s="62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N38" s="62"/>
       <c r="O38" s="62"/>
@@ -10582,7 +10548,7 @@
         <v>42949</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C39" s="36">
         <v>42958</v>
@@ -10597,7 +10563,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="57" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H39" s="61">
         <v>75700</v>
@@ -10606,13 +10572,13 @@
         <v>176</v>
       </c>
       <c r="K39" s="57" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L39" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
@@ -10622,7 +10588,7 @@
         <v>42949</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C40" s="36">
         <v>42958</v>
@@ -10637,7 +10603,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="57" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H40" s="61">
         <v>0</v>
@@ -10647,7 +10613,7 @@
         <v>225</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
@@ -10657,7 +10623,7 @@
         <v>42949</v>
       </c>
       <c r="B41" s="95" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C41" s="36">
         <v>42958</v>
@@ -10672,7 +10638,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H41" s="61">
         <v>139500</v>
@@ -10687,7 +10653,7 @@
         <v>225</v>
       </c>
       <c r="M41" s="37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
@@ -10697,10 +10663,10 @@
         <v>42914</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D42" s="64">
         <v>37.416499999999999</v>
@@ -10719,10 +10685,10 @@
       </c>
       <c r="I42" s="69"/>
       <c r="N42" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O42" s="66" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="65" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -10730,10 +10696,10 @@
         <v>42916</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D43" s="64">
         <v>37.273299999999999</v>
@@ -10752,10 +10718,10 @@
       </c>
       <c r="I43" s="69"/>
       <c r="N43" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O43" s="66" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="65" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -10763,10 +10729,10 @@
         <v>42921</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D44" s="64">
         <v>37.273299999999999</v>
@@ -10785,10 +10751,10 @@
       </c>
       <c r="I44" s="69"/>
       <c r="N44" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O44" s="66" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="65" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -10796,10 +10762,10 @@
         <v>42922</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D45" s="64">
         <v>37.228400000000001</v>
@@ -10819,10 +10785,10 @@
       <c r="I45" s="66"/>
       <c r="J45" s="69"/>
       <c r="N45" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O45" s="66" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="65" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -10830,10 +10796,10 @@
         <v>42923</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D46" s="64">
         <v>37.273299999999999</v>
@@ -10853,10 +10819,10 @@
       <c r="I46" s="66"/>
       <c r="J46" s="69"/>
       <c r="N46" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O46" s="66" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="65" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -10864,10 +10830,10 @@
         <v>42927</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C47" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D47" s="64">
         <v>37.5944</v>
@@ -10887,10 +10853,10 @@
       <c r="I47" s="66"/>
       <c r="J47" s="69"/>
       <c r="N47" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O47" s="37" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="65" customFormat="1" ht="78" x14ac:dyDescent="0.3">
@@ -10898,10 +10864,10 @@
         <v>42943</v>
       </c>
       <c r="B48" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="65" t="s">
         <v>284</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>287</v>
       </c>
       <c r="D48" s="70">
         <v>37.245399999999997</v>
@@ -10913,7 +10879,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="67" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H48" s="68">
         <v>16842</v>
@@ -10921,17 +10887,17 @@
       <c r="I48" s="66"/>
       <c r="J48" s="69"/>
       <c r="N48" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O48" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="65" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="63"/>
       <c r="B49" s="64"/>
       <c r="C49" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D49" s="70">
         <v>37.245399999999997</v>
@@ -10943,7 +10909,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="67" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H49" s="68">
         <v>1604</v>
@@ -10957,10 +10923,10 @@
         <v>42943</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C50" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D50" s="64">
         <v>37.224800000000002</v>
@@ -10972,7 +10938,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H50" s="68">
         <v>30600</v>
@@ -10980,17 +10946,17 @@
       <c r="I50" s="66"/>
       <c r="J50" s="69"/>
       <c r="N50" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O50" s="94" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="65" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="63"/>
       <c r="B51" s="64"/>
       <c r="C51" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D51" s="64">
         <v>37.224800000000002</v>
@@ -11000,7 +10966,7 @@
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="67" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H51" s="68">
         <v>2580</v>
@@ -11014,10 +10980,10 @@
         <v>42943</v>
       </c>
       <c r="B52" s="80" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D52" s="64">
         <v>37.238900000000001</v>
@@ -11029,7 +10995,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="67" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H52" s="68">
         <v>74400</v>
@@ -11037,17 +11003,17 @@
       <c r="I52" s="66"/>
       <c r="J52" s="69"/>
       <c r="N52" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O52" s="37" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="63"/>
       <c r="B53" s="80"/>
       <c r="C53" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D53" s="64">
         <v>37.238900000000001</v>
@@ -11059,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="67" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H53" s="68">
         <v>6194</v>
@@ -11073,10 +11039,10 @@
         <v>42943</v>
       </c>
       <c r="B54" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="65" t="s">
         <v>284</v>
-      </c>
-      <c r="C54" s="65" t="s">
-        <v>287</v>
       </c>
       <c r="D54" s="64">
         <v>37.245100000000001</v>
@@ -11088,7 +11054,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="67" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H54" s="68">
         <v>27800</v>
@@ -11096,17 +11062,17 @@
       <c r="I54" s="66"/>
       <c r="J54" s="69"/>
       <c r="N54" s="65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O54" s="37" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="65" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="63"/>
       <c r="B55" s="80"/>
       <c r="C55" s="65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D55" s="64">
         <v>37.245100000000001</v>
@@ -11118,7 +11084,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="67" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H55" s="68">
         <v>3790</v>
@@ -11147,24 +11113,24 @@
         <v>2</v>
       </c>
       <c r="G56" s="73" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H56" s="77">
         <v>54600</v>
       </c>
       <c r="M56" s="75"/>
       <c r="N56" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O56" s="75" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="73" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A57" s="72"/>
       <c r="C57" s="74"/>
       <c r="G57" s="73" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H57" s="73">
         <v>5022</v>
@@ -11193,17 +11159,17 @@
         <v>2</v>
       </c>
       <c r="G58" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H58" s="77">
         <v>4275</v>
       </c>
       <c r="M58" s="75"/>
       <c r="N58" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O58" s="75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -11226,17 +11192,17 @@
         <v>2</v>
       </c>
       <c r="G59" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H59" s="77">
         <v>80975</v>
       </c>
       <c r="M59" s="75"/>
       <c r="N59" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O59" s="75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -11259,17 +11225,17 @@
         <v>2</v>
       </c>
       <c r="G60" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H60" s="77">
         <v>116580</v>
       </c>
       <c r="M60" s="75"/>
       <c r="N60" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O60" s="75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -11277,7 +11243,7 @@
         <v>42956</v>
       </c>
       <c r="B61" s="73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C61" s="74">
         <v>42963</v>
@@ -11292,17 +11258,17 @@
         <v>2</v>
       </c>
       <c r="G61" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H61" s="77">
         <v>1460</v>
       </c>
       <c r="M61" s="75"/>
       <c r="N61" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O61" s="75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -11310,7 +11276,7 @@
         <v>42956</v>
       </c>
       <c r="B62" s="73" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C62" s="74">
         <v>42963</v>
@@ -11325,17 +11291,17 @@
         <v>2</v>
       </c>
       <c r="G62" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H62" s="77">
         <v>24000</v>
       </c>
       <c r="M62" s="75"/>
       <c r="N62" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O62" s="75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -11343,7 +11309,7 @@
         <v>42956</v>
       </c>
       <c r="B63" s="73" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C63" s="74">
         <v>42963</v>
@@ -11358,17 +11324,17 @@
         <v>2</v>
       </c>
       <c r="G63" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H63" s="77">
         <v>43400</v>
       </c>
       <c r="M63" s="75"/>
       <c r="N63" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O63" s="75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -11376,7 +11342,7 @@
         <v>42956</v>
       </c>
       <c r="B64" s="73" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C64" s="74">
         <v>42963</v>
@@ -11391,17 +11357,17 @@
         <v>2</v>
       </c>
       <c r="G64" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H64" s="77">
         <v>44200</v>
       </c>
       <c r="M64" s="75"/>
       <c r="N64" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O64" s="75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -11424,17 +11390,17 @@
         <v>2</v>
       </c>
       <c r="G65" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H65" s="77">
         <v>136800</v>
       </c>
       <c r="M65" s="75"/>
       <c r="N65" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O65" s="75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="73" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -11442,7 +11408,7 @@
         <v>42954</v>
       </c>
       <c r="B66" s="86" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C66" s="87">
         <v>42961</v>
@@ -11457,7 +11423,7 @@
         <v>199</v>
       </c>
       <c r="G66" s="78" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H66" s="77">
         <v>186000</v>
@@ -11472,13 +11438,13 @@
         <v>39</v>
       </c>
       <c r="L66" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M66" s="75">
         <v>5.5599999999999998E-3</v>
       </c>
       <c r="N66" s="75" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O66" s="75"/>
     </row>
@@ -11487,7 +11453,7 @@
         <v>42954</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C67" s="87">
         <v>42961</v>
@@ -11502,7 +11468,7 @@
         <v>199</v>
       </c>
       <c r="G67" s="78" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H67" s="77">
         <v>152000</v>
@@ -11517,13 +11483,13 @@
         <v>39</v>
       </c>
       <c r="L67" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M67" s="75">
         <v>1.903E-3</v>
       </c>
       <c r="N67" s="75" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O67" s="75"/>
     </row>
@@ -11547,7 +11513,7 @@
         <v>15</v>
       </c>
       <c r="G68" s="78" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H68" s="77">
         <v>68640</v>
@@ -11567,7 +11533,7 @@
       <c r="M68" s="75"/>
       <c r="N68" s="75"/>
       <c r="O68" s="75" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11575,7 +11541,7 @@
         <v>42963</v>
       </c>
       <c r="B69" s="89" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C69" s="40">
         <v>42968</v>
@@ -11590,7 +11556,7 @@
         <v>15</v>
       </c>
       <c r="G69" s="92" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H69" s="93">
         <v>66872</v>
@@ -11608,7 +11574,7 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="O69" s="37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -11616,7 +11582,7 @@
         <v>42961</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C70" s="40">
         <v>42968</v>
@@ -11631,7 +11597,7 @@
         <v>199</v>
       </c>
       <c r="G70" s="84" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H70" s="85">
         <v>142000</v>
@@ -11640,11 +11606,11 @@
         <v>176</v>
       </c>
       <c r="L70" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M70" s="96"/>
       <c r="O70" s="37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -11652,7 +11618,7 @@
         <v>42961</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C71" s="40">
         <v>42968</v>
@@ -11667,7 +11633,7 @@
         <v>199</v>
       </c>
       <c r="G71" s="84" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H71" s="85">
         <v>140000</v>
@@ -11676,11 +11642,11 @@
         <v>176</v>
       </c>
       <c r="L71" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M71" s="96"/>
       <c r="O71" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -11688,7 +11654,7 @@
         <v>42968</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C72" s="40">
         <v>42968</v>
@@ -11703,7 +11669,7 @@
         <v>199</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H72" s="85">
         <v>87400</v>
@@ -11712,11 +11678,11 @@
         <v>176</v>
       </c>
       <c r="L72" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M72" s="96"/>
       <c r="O72" s="37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
@@ -11724,7 +11690,7 @@
         <v>42968</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C73" s="40">
         <v>42968</v>
@@ -11739,7 +11705,7 @@
         <v>199</v>
       </c>
       <c r="G73" s="84" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H73" s="85">
         <v>133000</v>
@@ -11748,11 +11714,11 @@
         <v>176</v>
       </c>
       <c r="L73" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M73" s="96"/>
       <c r="O73" s="37" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
@@ -11760,7 +11726,7 @@
         <v>42957</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C74" s="40">
         <v>42968</v>
@@ -11775,7 +11741,7 @@
         <v>15</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H74" s="52">
         <v>3650</v>
@@ -11796,7 +11762,7 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="O74" s="37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -11824,7 +11790,7 @@
         <v>42969</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C76" s="40">
         <v>42972</v>
@@ -11839,7 +11805,7 @@
         <v>15</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H76" s="52">
         <v>8200</v>
@@ -11854,7 +11820,7 @@
         <v>225</v>
       </c>
       <c r="O76" s="37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -11862,7 +11828,7 @@
         <v>42975</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C77" s="40">
         <v>42978</v>
@@ -11877,7 +11843,7 @@
         <v>199</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H77" s="52">
         <v>59496396</v>
@@ -11886,14 +11852,14 @@
         <v>176</v>
       </c>
       <c r="L77" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M77" s="96"/>
       <c r="N77" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O77" s="37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
@@ -11901,7 +11867,7 @@
         <v>42975</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C78" s="40">
         <v>42978</v>
@@ -11916,7 +11882,7 @@
         <v>199</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H78" s="52">
         <v>71215383</v>
@@ -11925,19 +11891,19 @@
         <v>176</v>
       </c>
       <c r="L78" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M78" s="96"/>
       <c r="N78" s="38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="78" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C79" s="40">
         <v>42978</v>
@@ -11949,10 +11915,10 @@
         <v>-78.439419999999998</v>
       </c>
       <c r="N79" s="38" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O79" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -11981,10 +11947,10 @@
         <v>50274</v>
       </c>
       <c r="N80" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O80" s="37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12013,7 +11979,7 @@
         <v>10334</v>
       </c>
       <c r="N81" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12042,7 +12008,7 @@
         <v>276100</v>
       </c>
       <c r="N82" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12071,7 +12037,7 @@
         <v>245626</v>
       </c>
       <c r="N83" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12100,7 +12066,7 @@
         <v>2484</v>
       </c>
       <c r="N84" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12129,7 +12095,7 @@
         <v>69051</v>
       </c>
       <c r="N85" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12158,7 +12124,7 @@
         <v>1102</v>
       </c>
       <c r="N86" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12187,7 +12153,7 @@
         <v>25478</v>
       </c>
       <c r="N87" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12216,7 +12182,7 @@
         <v>138102</v>
       </c>
       <c r="N88" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12245,7 +12211,7 @@
         <v>340000</v>
       </c>
       <c r="N89" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12274,7 +12240,7 @@
         <v>90217</v>
       </c>
       <c r="N90" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12303,7 +12269,7 @@
         <v>92529</v>
       </c>
       <c r="N91" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12332,7 +12298,7 @@
         <v>69051</v>
       </c>
       <c r="N92" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12361,7 +12327,7 @@
         <v>190456</v>
       </c>
       <c r="N93" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12390,7 +12356,7 @@
         <v>28232</v>
       </c>
       <c r="N94" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12419,7 +12385,7 @@
         <v>100422</v>
       </c>
       <c r="N95" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
@@ -12448,7 +12414,7 @@
         <v>19444</v>
       </c>
       <c r="N96" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
@@ -12477,7 +12443,7 @@
         <v>24590</v>
       </c>
       <c r="N97" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
@@ -12506,7 +12472,7 @@
         <v>3391</v>
       </c>
       <c r="N98" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
@@ -12514,7 +12480,7 @@
         <v>42977</v>
       </c>
       <c r="B99" s="98" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C99" s="40">
         <v>42990</v>
@@ -12550,7 +12516,7 @@
         <v>3.8774999999999999</v>
       </c>
       <c r="O99" s="37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -12558,7 +12524,7 @@
         <v>42978</v>
       </c>
       <c r="B100" s="98" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C100" s="40">
         <v>42991</v>
@@ -12573,7 +12539,7 @@
         <v>15</v>
       </c>
       <c r="G100" s="99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H100" s="99">
         <v>7000</v>
@@ -12587,10 +12553,10 @@
         <v>42977</v>
       </c>
       <c r="B101" s="98" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D101" s="99">
         <v>37.412750000000003</v>
@@ -12602,7 +12568,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H101" s="101">
         <v>4000</v>
@@ -12620,7 +12586,7 @@
         <v>225</v>
       </c>
       <c r="M101" s="101" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O101" s="37" t="s">
         <v>205</v>
@@ -12631,10 +12597,10 @@
         <v>42977</v>
       </c>
       <c r="B102" s="98" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D102" s="99"/>
       <c r="E102" s="99"/>
@@ -12693,10 +12659,10 @@
         <v>176</v>
       </c>
       <c r="N103" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O103" s="37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
@@ -12733,7 +12699,7 @@
         <v>176</v>
       </c>
       <c r="N104" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
@@ -12770,7 +12736,7 @@
         <v>176</v>
       </c>
       <c r="N105" s="76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
@@ -12778,7 +12744,7 @@
         <v>42984</v>
       </c>
       <c r="B106" s="100" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C106" s="40">
         <v>42990</v>
@@ -12793,7 +12759,7 @@
         <v>15</v>
       </c>
       <c r="G106" s="99" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H106" s="52">
         <v>2360</v>
@@ -12811,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -12849,7 +12815,7 @@
         <v>176</v>
       </c>
       <c r="K107" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L107" s="33" t="s">
         <v>225</v>
@@ -12895,7 +12861,7 @@
         <v>176</v>
       </c>
       <c r="K108" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L108" s="33" t="s">
         <v>225</v>
@@ -12941,7 +12907,7 @@
         <v>176</v>
       </c>
       <c r="K109" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L109" s="33" t="s">
         <v>225</v>
@@ -12987,7 +12953,7 @@
         <v>176</v>
       </c>
       <c r="K110" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L110" s="33" t="s">
         <v>225</v>
@@ -13033,7 +12999,7 @@
         <v>176</v>
       </c>
       <c r="K111" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L111" s="33" t="s">
         <v>225</v>
@@ -13079,7 +13045,7 @@
         <v>176</v>
       </c>
       <c r="K112" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L112" s="33" t="s">
         <v>225</v>
@@ -13125,7 +13091,7 @@
         <v>176</v>
       </c>
       <c r="K113" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L113" s="33" t="s">
         <v>225</v>
@@ -13171,7 +13137,7 @@
         <v>176</v>
       </c>
       <c r="K114" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L114" s="33" t="s">
         <v>225</v>
@@ -13217,7 +13183,7 @@
         <v>176</v>
       </c>
       <c r="K115" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L115" s="33" t="s">
         <v>225</v>
@@ -13263,7 +13229,7 @@
         <v>176</v>
       </c>
       <c r="K116" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L116" s="33" t="s">
         <v>225</v>
@@ -13309,7 +13275,7 @@
         <v>176</v>
       </c>
       <c r="K117" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L117" s="33" t="s">
         <v>225</v>
@@ -13355,7 +13321,7 @@
         <v>176</v>
       </c>
       <c r="K118" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L118" s="33" t="s">
         <v>225</v>
@@ -13401,7 +13367,7 @@
         <v>176</v>
       </c>
       <c r="K119" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L119" s="33" t="s">
         <v>225</v>
@@ -13447,7 +13413,7 @@
         <v>176</v>
       </c>
       <c r="K120" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L120" s="33" t="s">
         <v>225</v>
@@ -13482,7 +13448,7 @@
         <v>15</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H121" s="33" t="str">
         <f>'[2]HAB Results Spreadsheet'!G68</f>
@@ -13492,7 +13458,7 @@
         <v>176</v>
       </c>
       <c r="K121" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L121" s="33" t="s">
         <v>225</v>
@@ -13538,7 +13504,7 @@
         <v>176</v>
       </c>
       <c r="K122" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L122" s="33" t="s">
         <v>225</v>
@@ -13576,7 +13542,7 @@
         <v>176</v>
       </c>
       <c r="K123" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L123" s="33" t="s">
         <v>225</v>
@@ -13614,7 +13580,7 @@
         <v>176</v>
       </c>
       <c r="K124" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L124" s="33" t="s">
         <v>225</v>
@@ -13624,7 +13590,7 @@
         <v>below detection limit</v>
       </c>
       <c r="O124" s="37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -13655,7 +13621,7 @@
         <v>176</v>
       </c>
       <c r="K125" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L125" s="33" t="s">
         <v>225</v>
@@ -13693,7 +13659,7 @@
         <v>176</v>
       </c>
       <c r="K126" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L126" s="33" t="s">
         <v>225</v>
@@ -13731,7 +13697,7 @@
         <v>176</v>
       </c>
       <c r="K127" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L127" s="33" t="s">
         <v>225</v>
@@ -13741,7 +13707,7 @@
         <v>below detection limit</v>
       </c>
       <c r="O127" s="37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -13772,7 +13738,7 @@
         <v>176</v>
       </c>
       <c r="K128" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L128" s="33" t="s">
         <v>225</v>
@@ -13810,7 +13776,7 @@
         <v>176</v>
       </c>
       <c r="K129" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L129" s="33" t="s">
         <v>225</v>
@@ -13848,7 +13814,7 @@
         <v>176</v>
       </c>
       <c r="K130" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L130" s="33" t="s">
         <v>225</v>
@@ -13886,7 +13852,7 @@
         <v>176</v>
       </c>
       <c r="K131" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L131" s="33" t="s">
         <v>225</v>
@@ -13924,7 +13890,7 @@
         <v>176</v>
       </c>
       <c r="K132" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L132" s="33" t="s">
         <v>225</v>
@@ -13962,7 +13928,7 @@
         <v>176</v>
       </c>
       <c r="K133" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L133" s="33" t="s">
         <v>225</v>
@@ -13972,7 +13938,7 @@
         <v>microcystin 0.452 ppb</v>
       </c>
       <c r="O133" s="37" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -14003,7 +13969,7 @@
         <v>176</v>
       </c>
       <c r="K134" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L134" s="33" t="s">
         <v>225</v>
@@ -14013,7 +13979,7 @@
         <v>microcystin 0.452 ppb</v>
       </c>
       <c r="O134" s="37" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -14033,7 +13999,7 @@
         <v>15</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H135" s="33" t="str">
         <f>'[2]HAB Results Spreadsheet'!G82</f>
@@ -14043,7 +14009,7 @@
         <v>176</v>
       </c>
       <c r="K135" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L135" s="33" t="s">
         <v>225</v>
@@ -14070,7 +14036,7 @@
         <v>15</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H136" s="33" t="str">
         <f>'[2]HAB Results Spreadsheet'!G83</f>
@@ -14080,7 +14046,7 @@
         <v>176</v>
       </c>
       <c r="K136" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L136" s="33" t="s">
         <v>225</v>
@@ -14118,7 +14084,7 @@
         <v>176</v>
       </c>
       <c r="K137" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L137" s="33" t="s">
         <v>225</v>
@@ -14156,7 +14122,7 @@
         <v>176</v>
       </c>
       <c r="K138" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L138" s="33" t="s">
         <v>225</v>
@@ -14194,7 +14160,7 @@
         <v>176</v>
       </c>
       <c r="K139" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L139" s="33" t="s">
         <v>225</v>
@@ -14232,7 +14198,7 @@
         <v>176</v>
       </c>
       <c r="K140" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L140" s="33" t="s">
         <v>225</v>
@@ -14242,7 +14208,7 @@
         <v>microcystin &gt;5 ppb</v>
       </c>
       <c r="O140" s="37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -14273,7 +14239,7 @@
         <v>176</v>
       </c>
       <c r="K141" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L141" s="33" t="s">
         <v>225</v>
@@ -14288,7 +14254,7 @@
         <v>43010</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C142" s="40">
         <v>43014</v>
@@ -14297,7 +14263,7 @@
         <v>15</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H142" s="103">
         <v>12000</v>
@@ -14306,13 +14272,13 @@
         <v>176</v>
       </c>
       <c r="K142" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L142" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M142" s="38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
@@ -14320,7 +14286,7 @@
         <v>43010</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C143" s="40">
         <v>43014</v>
@@ -14329,7 +14295,7 @@
         <v>15</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H143" s="103">
         <v>108000</v>
@@ -14338,16 +14304,16 @@
         <v>176</v>
       </c>
       <c r="K143" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L143" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M143" s="38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O143" s="37" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -14355,13 +14321,13 @@
         <v>43010</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F144" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G144" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H144" s="104">
         <v>7000</v>
@@ -14370,13 +14336,13 @@
         <v>176</v>
       </c>
       <c r="K144" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L144" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M144" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -14384,13 +14350,13 @@
         <v>43010</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F145" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H145" s="104">
         <v>11500</v>
@@ -14399,13 +14365,13 @@
         <v>176</v>
       </c>
       <c r="K145" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L145" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M145" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -14413,7 +14379,7 @@
         <v>43010</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C146" s="40">
         <v>43014</v>
@@ -14422,7 +14388,7 @@
         <v>15</v>
       </c>
       <c r="G146" s="33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H146" s="104">
         <v>68000</v>
@@ -14431,16 +14397,16 @@
         <v>176</v>
       </c>
       <c r="K146" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L146" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M146" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O146" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -14448,7 +14414,7 @@
         <v>43005</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C147" s="40">
         <v>43014</v>
@@ -14457,7 +14423,7 @@
         <v>15</v>
       </c>
       <c r="G147" s="33" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H147" s="104">
         <v>18000</v>
@@ -14466,13 +14432,13 @@
         <v>176</v>
       </c>
       <c r="K147" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L147" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M147" s="38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -14480,7 +14446,7 @@
         <v>43005</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F148" s="33" t="s">
         <v>15</v>
@@ -14495,16 +14461,16 @@
         <v>176</v>
       </c>
       <c r="K148" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L148" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M148" s="38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O148" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -14512,7 +14478,7 @@
         <v>43005</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F149" s="33" t="s">
         <v>15</v>
@@ -14527,13 +14493,13 @@
         <v>176</v>
       </c>
       <c r="K149" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L149" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M149" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -14541,13 +14507,13 @@
         <v>43005</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F150" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H150" s="104">
         <v>1000</v>
@@ -14556,13 +14522,13 @@
         <v>176</v>
       </c>
       <c r="K150" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L150" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M150" s="38" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -14570,7 +14536,7 @@
         <v>43005</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C151" s="40">
         <v>43014</v>
@@ -14588,16 +14554,16 @@
         <v>176</v>
       </c>
       <c r="K151" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L151" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M151" s="38" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O151" s="37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -14605,7 +14571,7 @@
         <v>43005</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C152" s="40">
         <v>43027</v>
@@ -14614,7 +14580,7 @@
         <v>15</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H152" s="104">
         <v>900</v>
@@ -14623,13 +14589,13 @@
         <v>176</v>
       </c>
       <c r="K152" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L152" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M152" s="38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -14637,7 +14603,7 @@
         <v>43005</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C153" s="40">
         <v>43027</v>
@@ -14655,13 +14621,13 @@
         <v>176</v>
       </c>
       <c r="K153" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L153" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M153" s="38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -14669,7 +14635,7 @@
         <v>43024</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C154" s="40">
         <v>43027</v>
@@ -14678,7 +14644,7 @@
         <v>15</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H154" s="33">
         <v>3000</v>
@@ -14687,13 +14653,13 @@
         <v>176</v>
       </c>
       <c r="K154" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L154" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M154" s="38" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
@@ -14701,7 +14667,7 @@
         <v>43024</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C155" s="40">
         <v>43027</v>
@@ -14710,7 +14676,7 @@
         <v>15</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H155" s="33">
         <v>8000</v>
@@ -14719,16 +14685,16 @@
         <v>176</v>
       </c>
       <c r="K155" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L155" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M155" s="38" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O155" s="37" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -14736,7 +14702,7 @@
         <v>43024</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C156" s="40">
         <v>43027</v>
@@ -14745,7 +14711,7 @@
         <v>15</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H156" s="33">
         <v>800</v>
@@ -14754,13 +14720,13 @@
         <v>176</v>
       </c>
       <c r="K156" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L156" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M156" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -14768,7 +14734,7 @@
         <v>43024</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C157" s="40">
         <v>43027</v>
@@ -14777,7 +14743,7 @@
         <v>15</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H157" s="52">
         <v>4000</v>
@@ -14786,13 +14752,13 @@
         <v>176</v>
       </c>
       <c r="K157" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L157" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M157" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
@@ -14800,7 +14766,7 @@
         <v>43024</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C158" s="40">
         <v>43027</v>
@@ -14809,7 +14775,7 @@
         <v>15</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H158" s="52">
         <v>7000</v>
@@ -14818,16 +14784,16 @@
         <v>176</v>
       </c>
       <c r="K158" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L158" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M158" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O158" s="37" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
@@ -14866,13 +14832,13 @@
         <v>0.353 ppb</v>
       </c>
       <c r="K159" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L159" s="33" t="s">
         <v>225</v>
       </c>
       <c r="O159" s="37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -14911,7 +14877,7 @@
         <v>0.353 ppb</v>
       </c>
       <c r="K160" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L160" s="33" t="s">
         <v>225</v>
@@ -14953,7 +14919,7 @@
         <v>0.353 ppb</v>
       </c>
       <c r="K161" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L161" s="33" t="s">
         <v>225</v>
@@ -14995,7 +14961,7 @@
         <v>0.353 ppb</v>
       </c>
       <c r="K162" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L162" s="33" t="s">
         <v>225</v>
@@ -15025,7 +14991,7 @@
         <v>15</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H163" s="52" t="str">
         <f>'[3]HAB Results Spreadsheet'!G110</f>
@@ -15036,7 +15002,7 @@
         <v>0.1785 ppb</v>
       </c>
       <c r="K163" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L163" s="33" t="s">
         <v>225</v>
@@ -15078,16 +15044,16 @@
         <v>N/A</v>
       </c>
       <c r="K164" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L164" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M164" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O164" s="37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -15126,13 +15092,13 @@
         <v>N/A</v>
       </c>
       <c r="K165" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L165" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M165" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -15171,13 +15137,13 @@
         <v>N/A</v>
       </c>
       <c r="K166" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L166" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M166" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -15185,7 +15151,7 @@
         <v>43060</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C167" s="40">
         <v>43067</v>
@@ -15200,25 +15166,25 @@
         <v>15</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H167" s="52">
         <v>512000</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K167" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L167" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M167" s="38" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O167" s="37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -15226,7 +15192,7 @@
         <v>43060</v>
       </c>
       <c r="B168" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C168" s="40">
         <v>43067</v>
@@ -15241,13 +15207,13 @@
         <v>15</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L168" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M168" s="38" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -15255,7 +15221,7 @@
         <v>43060</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C169" s="40">
         <v>43067</v>
@@ -15270,16 +15236,16 @@
         <v>15</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K169" s="33" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L169" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M169" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
@@ -15287,7 +15253,7 @@
         <v>43060</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C170" s="40">
         <v>43067</v>
@@ -15302,7 +15268,7 @@
         <v>15</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H170" s="52">
         <v>38300</v>
@@ -15311,10 +15277,10 @@
         <v>225</v>
       </c>
       <c r="M170" s="38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O170" s="37" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -15322,7 +15288,7 @@
         <v>43061</v>
       </c>
       <c r="B171" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C171" s="40"/>
       <c r="D171" s="33">
@@ -15335,19 +15301,19 @@
         <v>15</v>
       </c>
       <c r="G171" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H171" s="33">
         <v>600</v>
       </c>
       <c r="I171" s="33" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J171" s="33">
         <v>0</v>
       </c>
       <c r="K171" s="33" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -15355,13 +15321,13 @@
         <v>43061</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F172" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H172" s="52">
         <v>2500</v>
@@ -15378,7 +15344,7 @@
         <v>43073</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C173" s="40">
         <v>43074</v>
@@ -15393,28 +15359,28 @@
         <v>15</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H173" s="52">
         <v>1000</v>
       </c>
       <c r="I173" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J173" s="33">
         <v>1</v>
       </c>
       <c r="K173" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L173" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M173" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O173" s="37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
@@ -15422,7 +15388,7 @@
         <v>43073</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C174" s="40">
         <v>43074</v>
@@ -15437,10 +15403,10 @@
         <v>15</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H174" s="33" t="s">
-        <v>402</v>
+        <v>187</v>
       </c>
       <c r="I174" s="33" t="s">
         <v>39</v>
@@ -15449,16 +15415,16 @@
         <v>1</v>
       </c>
       <c r="K174" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L174" s="33" t="s">
         <v>225</v>
       </c>
       <c r="M174" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O174" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
